--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -293,379 +293,383 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>clothingState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationClothingState}
+</t>
+  </si>
+  <si>
+    <t>Description of the state of dress of the person at the time of weighing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>confoundingFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationConfoundingFactor}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>clothingState</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationClothingState}
-</t>
-  </si>
-  <si>
-    <t>Description of the state of dress of the person at the time of weighing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>confoundingFactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationConfoundingFactor}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>Observation.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
-  </si>
-  <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>value:coding.code}
-value:coding.system}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>VSCat</t>
-  </si>
-  <si>
-    <t>Observation.category.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4372,13 +4376,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4429,7 +4433,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4453,7 +4457,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4464,7 +4468,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4490,10 +4494,10 @@
         <v>134</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>153</v>
@@ -4537,7 +4541,7 @@
         <v>137</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>79</v>
@@ -4546,7 +4550,7 @@
         <v>138</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4570,7 +4574,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4581,7 +4585,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4604,19 +4608,19 @@
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4665,7 +4669,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4686,10 +4690,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4700,7 +4704,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4723,13 +4727,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4780,7 +4784,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4804,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4815,7 +4819,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4841,10 +4845,10 @@
         <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>153</v>
@@ -4888,7 +4892,7 @@
         <v>137</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>79</v>
@@ -4897,7 +4901,7 @@
         <v>138</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4921,7 +4925,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4932,7 +4936,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4958,23 +4962,23 @@
         <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>79</v>
@@ -5016,7 +5020,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -5037,10 +5041,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5051,7 +5055,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5074,16 +5078,16 @@
         <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5133,7 +5137,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -5154,10 +5158,10 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5168,7 +5172,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5194,21 +5198,21 @@
         <v>109</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>79</v>
@@ -5250,7 +5254,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -5271,10 +5275,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5285,7 +5289,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5308,17 +5312,17 @@
         <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5367,7 +5371,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5388,10 +5392,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5402,7 +5406,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5425,19 +5429,19 @@
         <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5486,7 +5490,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5507,10 +5511,10 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5521,7 +5525,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5544,19 +5548,19 @@
         <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5605,7 +5609,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5626,10 +5630,10 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5640,11 +5644,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5666,16 +5670,16 @@
         <v>196</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5700,13 +5704,13 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
@@ -5724,7 +5728,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>89</v>
@@ -5739,27 +5743,27 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5782,13 +5786,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5839,7 +5843,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5863,7 +5867,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5874,7 +5878,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5900,10 +5904,10 @@
         <v>134</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>153</v>
@@ -5947,7 +5951,7 @@
         <v>137</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>79</v>
@@ -5956,7 +5960,7 @@
         <v>138</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5980,7 +5984,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5991,7 +5995,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6014,19 +6018,19 @@
         <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6063,7 +6067,7 @@
         <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
@@ -6073,7 +6077,7 @@
         <v>138</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6094,10 +6098,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6108,10 +6112,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>79</v>
@@ -6133,19 +6137,19 @@
         <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6194,7 +6198,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6215,10 +6219,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6229,7 +6233,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6252,13 +6256,13 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6309,7 +6313,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -6333,7 +6337,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6344,7 +6348,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6370,10 +6374,10 @@
         <v>134</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>153</v>
@@ -6417,7 +6421,7 @@
         <v>137</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>79</v>
@@ -6426,7 +6430,7 @@
         <v>138</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6450,7 +6454,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6461,7 +6465,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6487,23 +6491,23 @@
         <v>103</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>79</v>
@@ -6545,7 +6549,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6566,10 +6570,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6580,7 +6584,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6603,16 +6607,16 @@
         <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6662,7 +6666,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6683,10 +6687,10 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6697,7 +6701,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6723,21 +6727,21 @@
         <v>109</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>79</v>
@@ -6779,7 +6783,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6800,10 +6804,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6814,7 +6818,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6837,17 +6841,17 @@
         <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6896,7 +6900,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6917,10 +6921,10 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6931,7 +6935,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6954,19 +6958,19 @@
         <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7015,7 +7019,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -7036,10 +7040,10 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7050,7 +7054,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7073,19 +7077,19 @@
         <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7134,7 +7138,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -7155,10 +7159,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7169,7 +7173,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7192,19 +7196,19 @@
         <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7253,7 +7257,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -7268,19 +7272,19 @@
         <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7288,7 +7292,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7311,16 +7315,16 @@
         <v>90</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7370,7 +7374,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7391,13 +7395,13 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7405,11 +7409,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7428,19 +7432,19 @@
         <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7489,7 +7493,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7504,19 +7508,19 @@
         <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7524,11 +7528,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7547,19 +7551,19 @@
         <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7608,7 +7612,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7617,25 +7621,25 @@
         <v>89</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7643,7 +7647,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7666,16 +7670,16 @@
         <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7725,7 +7729,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7746,13 +7750,13 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7760,7 +7764,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7783,17 +7787,17 @@
         <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7830,7 +7834,7 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
@@ -7840,7 +7844,7 @@
         <v>138</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7855,19 +7859,19 @@
         <v>101</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7875,10 +7879,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7900,17 +7904,17 @@
         <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7959,7 +7963,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7974,19 +7978,19 @@
         <v>101</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7994,10 +7998,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>79</v>
@@ -8019,17 +8023,17 @@
         <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8078,7 +8082,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8093,19 +8097,19 @@
         <v>101</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8113,7 +8117,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8136,19 +8140,19 @@
         <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8185,17 +8189,17 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -8204,7 +8208,7 @@
         <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>101</v>
@@ -8213,27 +8217,27 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8255,19 +8259,19 @@
         <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8316,7 +8320,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -8325,7 +8329,7 @@
         <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>101</v>
@@ -8334,24 +8338,24 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8374,13 +8378,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8431,7 +8435,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8455,7 +8459,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8466,7 +8470,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8492,10 +8496,10 @@
         <v>134</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>153</v>
@@ -8539,7 +8543,7 @@
         <v>137</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>79</v>
@@ -8548,7 +8552,7 @@
         <v>138</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8572,7 +8576,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8583,7 +8587,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8606,19 +8610,19 @@
         <v>90</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8667,7 +8671,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8688,10 +8692,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8702,7 +8706,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8728,20 +8732,20 @@
         <v>109</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q56" t="s" s="2">
         <v>79</v>
@@ -8765,10 +8769,10 @@
         <v>188</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8786,7 +8790,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8807,10 +8811,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8821,7 +8825,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8844,17 +8848,17 @@
         <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8903,7 +8907,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8924,10 +8928,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8938,7 +8942,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8964,21 +8968,21 @@
         <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>79</v>
@@ -9020,7 +9024,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -9029,7 +9033,7 @@
         <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>101</v>
@@ -9041,10 +9045,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9055,7 +9059,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9081,16 +9085,16 @@
         <v>109</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9118,10 +9122,10 @@
         <v>188</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -9139,7 +9143,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -9160,10 +9164,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9174,7 +9178,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9200,16 +9204,16 @@
         <v>196</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9234,13 +9238,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -9258,7 +9262,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -9267,7 +9271,7 @@
         <v>89</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>101</v>
@@ -9282,7 +9286,7 @@
         <v>132</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9293,11 +9297,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9319,16 +9323,16 @@
         <v>196</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9353,13 +9357,13 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -9377,7 +9381,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9395,24 +9399,24 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9435,19 +9439,19 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9496,7 +9500,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9517,10 +9521,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9531,7 +9535,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9557,13 +9561,13 @@
         <v>196</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9589,13 +9593,13 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -9613,7 +9617,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9631,24 +9635,24 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9674,16 +9678,16 @@
         <v>196</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9708,13 +9712,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9732,7 +9736,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9753,10 +9757,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9767,7 +9771,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9790,16 +9794,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9849,7 +9853,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9867,24 +9871,24 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9907,16 +9911,16 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9966,7 +9970,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9984,24 +9988,24 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10024,19 +10028,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10085,7 +10089,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10097,7 +10101,7 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>79</v>
@@ -10106,10 +10110,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10120,7 +10124,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10143,13 +10147,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10200,7 +10204,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -10224,7 +10228,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10235,7 +10239,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10261,10 +10265,10 @@
         <v>134</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>153</v>
@@ -10317,7 +10321,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10341,7 +10345,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10352,11 +10356,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10378,10 +10382,10 @@
         <v>134</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>153</v>
@@ -10436,7 +10440,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10471,7 +10475,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10494,13 +10498,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10551,7 +10555,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -10560,7 +10564,7 @@
         <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>101</v>
@@ -10572,10 +10576,10 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10586,7 +10590,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10609,13 +10613,13 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10666,7 +10670,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -10675,7 +10679,7 @@
         <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>101</v>
@@ -10687,10 +10691,10 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10701,7 +10705,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10727,16 +10731,16 @@
         <v>196</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10764,10 +10768,10 @@
         <v>113</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>79</v>
@@ -10785,7 +10789,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10803,13 +10807,13 @@
         <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10820,7 +10824,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10846,16 +10850,16 @@
         <v>196</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10880,13 +10884,13 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
@@ -10904,7 +10908,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10922,13 +10926,13 @@
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10939,7 +10943,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10962,17 +10966,17 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11021,7 +11025,7 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
@@ -11045,7 +11049,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11056,7 +11060,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11079,13 +11083,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11136,7 +11140,7 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
@@ -11157,10 +11161,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11171,7 +11175,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11194,16 +11198,16 @@
         <v>90</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11253,7 +11257,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11274,10 +11278,10 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11288,7 +11292,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11311,16 +11315,16 @@
         <v>90</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11370,7 +11374,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11391,10 +11395,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11405,7 +11409,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11428,19 +11432,19 @@
         <v>90</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11489,7 +11493,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11501,7 +11505,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>79</v>
@@ -11510,10 +11514,10 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11524,7 +11528,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11547,13 +11551,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11604,7 +11608,7 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>77</v>
@@ -11628,7 +11632,7 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11639,7 +11643,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11665,10 +11669,10 @@
         <v>134</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>153</v>
@@ -11721,7 +11725,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11745,7 +11749,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11756,11 +11760,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11782,10 +11786,10 @@
         <v>134</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M82" t="s" s="2">
         <v>153</v>
@@ -11840,7 +11844,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11875,7 +11879,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11901,16 +11905,16 @@
         <v>196</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11935,13 +11939,13 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
@@ -11959,7 +11963,7 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>89</v>
@@ -11977,16 +11981,16 @@
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11994,7 +11998,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12017,19 +12021,19 @@
         <v>90</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12057,10 +12061,10 @@
         <v>188</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>79</v>
@@ -12078,7 +12082,7 @@
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>77</v>
@@ -12087,7 +12091,7 @@
         <v>89</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>101</v>
@@ -12096,24 +12100,24 @@
         <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12139,16 +12143,16 @@
         <v>196</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12173,13 +12177,13 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
@@ -12197,7 +12201,7 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
@@ -12206,7 +12210,7 @@
         <v>89</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>101</v>
@@ -12221,7 +12225,7 @@
         <v>132</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12232,11 +12236,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12258,16 +12262,16 @@
         <v>196</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12292,13 +12296,13 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
@@ -12316,7 +12320,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12334,24 +12338,24 @@
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12377,16 +12381,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12435,7 +12439,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12456,10 +12460,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3282" uniqueCount="593">
   <si>
     <t>Property</t>
   </si>
@@ -268,10 +268,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -1158,14 +1154,14 @@
     <t>Author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|CareTeam|Patient|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole)
 </t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization|CareTeam|Patient|RelatedPerson)
+    <t>organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -2458,19 +2454,19 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>79</v>
@@ -2481,7 +2477,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2492,28 +2488,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2563,13 +2559,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2598,7 +2594,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2609,25 +2605,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2678,19 +2674,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2713,7 +2709,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2724,28 +2720,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2795,19 +2791,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2830,7 +2826,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2841,7 +2837,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>79</v>
@@ -2853,16 +2849,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2888,43 +2884,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2947,18 +2943,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2970,16 +2966,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3029,31 +3025,31 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3064,11 +3060,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3087,16 +3083,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3146,7 +3142,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -3170,7 +3166,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3181,7 +3177,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3204,13 +3200,13 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3249,17 +3245,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -3271,7 +3267,7 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>79</v>
@@ -3294,10 +3290,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>79</v>
@@ -3307,7 +3303,7 @@
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -3319,13 +3315,13 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3376,7 +3372,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3385,10 +3381,10 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>79</v>
@@ -3400,7 +3396,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3411,10 +3407,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
@@ -3424,7 +3420,7 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -3436,13 +3432,13 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3493,7 +3489,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3502,10 +3498,10 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>79</v>
@@ -3517,7 +3513,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3528,11 +3524,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3545,25 +3541,25 @@
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>79</v>
@@ -3612,7 +3608,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3624,7 +3620,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>79</v>
@@ -3636,7 +3632,7 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3647,7 +3643,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3667,20 +3663,20 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3729,7 +3725,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3741,22 +3737,22 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3764,11 +3760,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3784,20 +3780,20 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
@@ -3846,7 +3842,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3858,19 +3854,19 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3881,11 +3877,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3901,19 +3897,19 @@
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3963,7 +3959,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3975,19 +3971,19 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3998,7 +3994,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4006,34 +4002,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="H16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -4058,56 +4054,56 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4115,7 +4111,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4123,13 +4119,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4138,19 +4134,19 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -4175,29 +4171,29 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -4209,7 +4205,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>79</v>
@@ -4221,10 +4217,10 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4232,24 +4228,24 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4257,19 +4253,19 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -4294,14 +4290,14 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4318,7 +4314,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4330,7 +4326,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>79</v>
@@ -4342,10 +4338,10 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4353,7 +4349,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4364,7 +4360,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -4376,13 +4372,13 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4433,31 +4429,31 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4468,11 +4464,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4491,16 +4487,16 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4538,19 +4534,19 @@
         <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB20" t="s" s="2">
+      <c r="AE20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4562,7 +4558,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>79</v>
@@ -4574,7 +4570,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4585,7 +4581,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4593,34 +4589,34 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4669,7 +4665,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4681,7 +4677,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>79</v>
@@ -4690,10 +4686,10 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4704,7 +4700,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4715,7 +4711,7 @@
         <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>79</v>
@@ -4727,13 +4723,13 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4784,31 +4780,31 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4819,11 +4815,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4842,16 +4838,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4889,19 +4885,19 @@
         <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD23" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB23" t="s" s="2">
+      <c r="AE23" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4913,7 +4909,7 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>79</v>
@@ -4925,7 +4921,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4936,7 +4932,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4944,107 +4940,107 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5055,7 +5051,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5066,28 +5062,28 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5137,31 +5133,31 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5172,7 +5168,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5180,105 +5176,105 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="R26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5289,7 +5285,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5300,29 +5296,29 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5371,31 +5367,31 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5406,7 +5402,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5417,31 +5413,31 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5490,31 +5486,31 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5525,7 +5521,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5536,31 +5532,31 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5609,31 +5605,31 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
@@ -5644,42 +5640,42 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5704,66 +5700,66 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5786,13 +5782,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5843,31 +5839,31 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5878,11 +5874,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5901,16 +5897,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5948,19 +5944,19 @@
         <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB32" t="s" s="2">
+      <c r="AE32" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5972,7 +5968,7 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>79</v>
@@ -5984,7 +5980,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5995,7 +5991,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6015,22 +6011,22 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -6067,17 +6063,17 @@
         <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -6089,7 +6085,7 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>79</v>
@@ -6098,10 +6094,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6112,44 +6108,44 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -6198,7 +6194,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -6210,7 +6206,7 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>79</v>
@@ -6219,10 +6215,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6233,7 +6229,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6256,13 +6252,13 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6313,31 +6309,31 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6348,11 +6344,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6371,16 +6367,16 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6418,19 +6414,19 @@
         <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AE36" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6442,7 +6438,7 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>79</v>
@@ -6454,7 +6450,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6465,7 +6461,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6473,41 +6469,41 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>79</v>
@@ -6549,31 +6545,31 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6584,7 +6580,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6604,19 +6600,19 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6666,31 +6662,31 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6701,7 +6697,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6709,39 +6705,39 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>79</v>
@@ -6783,31 +6779,31 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6818,7 +6814,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6829,29 +6825,29 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6900,31 +6896,31 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6935,7 +6931,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6955,22 +6951,22 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -7019,31 +7015,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -7054,7 +7050,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7074,22 +7070,22 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -7138,31 +7134,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AF42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7173,7 +7169,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7181,34 +7177,34 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -7257,34 +7253,34 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7292,7 +7288,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7312,19 +7308,19 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7374,7 +7370,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -7386,7 +7382,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>79</v>
@@ -7395,13 +7391,13 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7409,42 +7405,42 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
@@ -7493,34 +7489,34 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7528,42 +7524,42 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
@@ -7612,34 +7608,34 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AI46" t="s" s="2">
+      <c r="AJ46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7647,7 +7643,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7658,28 +7654,28 @@
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7729,19 +7725,19 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>79</v>
@@ -7750,13 +7746,13 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7764,7 +7760,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7784,20 +7780,20 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7834,17 +7830,17 @@
         <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7856,22 +7852,22 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7879,10 +7875,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>79</v>
@@ -7901,20 +7897,20 @@
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7963,7 +7959,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7975,22 +7971,22 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -7998,10 +7994,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>79</v>
@@ -8020,20 +8016,20 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -8082,7 +8078,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -8094,22 +8090,22 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8117,7 +8113,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8128,31 +8124,31 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -8189,55 +8185,55 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH51" t="s" s="2">
+      <c r="AI51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AI51" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
@@ -8247,31 +8243,31 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -8320,42 +8316,42 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AI52" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8378,13 +8374,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8435,31 +8431,31 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8470,11 +8466,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8493,16 +8489,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8540,19 +8536,19 @@
         <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AB54" t="s" s="2">
+      <c r="AE54" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8564,7 +8560,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>79</v>
@@ -8576,7 +8572,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8587,7 +8583,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8595,34 +8591,34 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8671,31 +8667,31 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8706,7 +8702,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8723,98 +8719,98 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P56" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" t="s" s="2">
+      <c r="Q56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X56" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="X56" t="s" s="2">
+      <c r="Y56" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y56" t="s" s="2">
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8825,7 +8821,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8833,32 +8829,32 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8907,31 +8903,31 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8942,7 +8938,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8950,105 +8946,105 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
+      <c r="AF58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH58" t="s" s="2">
+      <c r="AI58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9059,7 +9055,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9067,34 +9063,34 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -9119,55 +9115,55 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE59" t="s" s="2">
+      <c r="AF59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9178,7 +9174,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9189,11 +9185,11 @@
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9201,19 +9197,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -9238,55 +9234,55 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH60" t="s" s="2">
+      <c r="AI60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9297,11 +9293,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9320,19 +9316,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9357,14 +9353,14 @@
         <v>79</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9381,7 +9377,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -9393,30 +9389,30 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9439,19 +9435,19 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9500,7 +9496,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9512,7 +9508,7 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
@@ -9521,10 +9517,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9535,7 +9531,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9546,7 +9542,7 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -9558,16 +9554,16 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9593,66 +9589,66 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="X63" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="X63" t="s" s="2">
+      <c r="Y63" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>466</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9663,7 +9659,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9675,19 +9671,19 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9712,55 +9708,55 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9771,7 +9767,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9782,7 +9778,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9794,16 +9790,16 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9853,42 +9849,42 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9899,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -9911,16 +9907,16 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9970,42 +9966,42 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>493</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10028,19 +10024,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -10089,7 +10085,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -10101,19 +10097,19 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10124,7 +10120,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10135,7 +10131,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -10147,13 +10143,13 @@
         <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10204,31 +10200,31 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10239,11 +10235,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10262,16 +10258,16 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10321,7 +10317,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>77</v>
@@ -10333,7 +10329,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>79</v>
@@ -10345,7 +10341,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10356,11 +10352,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10373,25 +10369,25 @@
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="M70" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -10440,7 +10436,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -10452,7 +10448,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>79</v>
@@ -10464,7 +10460,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10475,7 +10471,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10486,7 +10482,7 @@
         <v>77</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>79</v>
@@ -10498,13 +10494,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10555,31 +10551,31 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10590,7 +10586,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10601,7 +10597,7 @@
         <v>77</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
@@ -10613,13 +10609,13 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10670,31 +10666,31 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="AI72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10705,7 +10701,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10716,7 +10712,7 @@
         <v>77</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -10728,19 +10724,19 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10765,55 +10761,55 @@
         <v>79</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -10824,7 +10820,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10847,19 +10843,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>79</v>
@@ -10884,14 +10880,14 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10908,7 +10904,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -10920,19 +10916,19 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>529</v>
-      </c>
       <c r="AM74" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10943,7 +10939,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10954,7 +10950,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>79</v>
@@ -10966,17 +10962,17 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>79</v>
@@ -11025,19 +11021,19 @@
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>79</v>
@@ -11049,7 +11045,7 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -11060,7 +11056,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11071,7 +11067,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>79</v>
@@ -11083,13 +11079,13 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11140,19 +11136,19 @@
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>79</v>
@@ -11161,10 +11157,10 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
@@ -11175,7 +11171,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11195,19 +11191,19 @@
         <v>79</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11257,7 +11253,7 @@
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>77</v>
@@ -11269,7 +11265,7 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>79</v>
@@ -11278,10 +11274,10 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
@@ -11292,7 +11288,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11312,19 +11308,19 @@
         <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11374,7 +11370,7 @@
         <v>79</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>77</v>
@@ -11386,7 +11382,7 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>79</v>
@@ -11395,10 +11391,10 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
@@ -11409,7 +11405,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11423,28 +11419,28 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L79" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>79</v>
@@ -11493,7 +11489,7 @@
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>77</v>
@@ -11505,19 +11501,19 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>79</v>
@@ -11528,7 +11524,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11539,7 +11535,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>79</v>
@@ -11551,13 +11547,13 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11608,31 +11604,31 @@
         <v>79</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>79</v>
@@ -11643,11 +11639,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11666,16 +11662,16 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="M81" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11725,7 +11721,7 @@
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>77</v>
@@ -11737,7 +11733,7 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>79</v>
@@ -11749,7 +11745,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11760,11 +11756,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11777,25 +11773,25 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="M82" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N82" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>79</v>
@@ -11844,7 +11840,7 @@
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>77</v>
@@ -11856,7 +11852,7 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>79</v>
@@ -11868,7 +11864,7 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>79</v>
@@ -11879,7 +11875,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11887,34 +11883,34 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J83" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>79</v>
@@ -11939,14 +11935,14 @@
         <v>79</v>
       </c>
       <c r="W83" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X83" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="X83" t="s" s="2">
+      <c r="Y83" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y83" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="Z83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11963,34 +11959,34 @@
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11998,7 +11994,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12009,31 +12005,31 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>79</v>
@@ -12058,66 +12054,66 @@
         <v>79</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH84" t="s" s="2">
+      <c r="AI84" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK84" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AI84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AL84" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO84" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12128,11 +12124,11 @@
         <v>77</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12140,19 +12136,19 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="M85" t="s" s="2">
-        <v>588</v>
-      </c>
       <c r="N85" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>79</v>
@@ -12177,14 +12173,14 @@
         <v>79</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>433</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12201,19 +12197,19 @@
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>79</v>
@@ -12222,10 +12218,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12236,11 +12232,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -12259,19 +12255,19 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>79</v>
@@ -12296,14 +12292,14 @@
         <v>79</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12320,7 +12316,7 @@
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>77</v>
@@ -12332,30 +12328,30 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AL86" t="s" s="2">
+      <c r="AM86" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12381,16 +12377,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="M87" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>79</v>
@@ -12439,7 +12435,7 @@
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>77</v>
@@ -12451,7 +12447,7 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>79</v>
@@ -12460,10 +12456,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVitalSignsObservationBodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.3</t>
   </si>
   <si>
     <t>Name</t>
